--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Exchange_Series_0_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Exchange_Series_0_resultados_full.xlsx
@@ -523,7 +523,7 @@
         <v>0.01070962822707405</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06715301363854509</v>
+        <v>0.06367289189221025</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +558,7 @@
         <v>0.001446203492165878</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06606151337138516</v>
+        <v>0.06261492436287155</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>0.009201257429750474</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06788382896641788</v>
+        <v>0.06440261356727407</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>0.004011294608530868</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06781205137732083</v>
+        <v>0.06435198607285336</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>0.008808667061710898</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06944570308251012</v>
+        <v>0.06604768093805236</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0.00557772969979857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0697473639469164</v>
+        <v>0.06639948274677197</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +733,7 @@
         <v>0.002721354871373314</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06698567199038698</v>
+        <v>0.06364794267290894</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>0.001636822602943777</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06662532301792563</v>
+        <v>0.06333143723864976</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +803,7 @@
         <v>0.003819661490132098</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06742914451010264</v>
+        <v>0.06416425361641742</v>
       </c>
     </row>
     <row r="11">
@@ -838,7 +838,7 @@
         <v>0.001794846151320982</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06609312152359274</v>
+        <v>0.06288146566813223</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
         <v>0.00471765014806462</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06725767892446194</v>
+        <v>0.06402958059192523</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>0.001568890274702881</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0661036740647612</v>
+        <v>0.06290901441317796</v>
       </c>
     </row>
     <row r="14">
@@ -943,7 +943,7 @@
         <v>0.002199317344416161</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0663769337359061</v>
+        <v>0.06317054194421358</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>0.00205355733878609</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06534509725710787</v>
+        <v>0.06215600149056899</v>
       </c>
     </row>
     <row r="16">
@@ -1013,7 +1013,7 @@
         <v>0.007887387672869265</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06736745079345685</v>
+        <v>0.06411669166950765</v>
       </c>
     </row>
     <row r="17">
@@ -1048,7 +1048,7 @@
         <v>0.00173283871823243</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06587847501455457</v>
+        <v>0.06265117425624446</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1083,7 @@
         <v>0.001671495845210622</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06576269122080282</v>
+        <v>0.06252463399066391</v>
       </c>
     </row>
     <row r="19">
@@ -1118,7 +1118,7 @@
         <v>0.004924491977094781</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06407569645267304</v>
+        <v>0.06083144342933237</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1153,7 @@
         <v>0.00250161711685581</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06353899315868466</v>
+        <v>0.06027997571490235</v>
       </c>
     </row>
     <row r="21">
@@ -1188,7 +1188,7 @@
         <v>0.004573013817331323</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06460729152058896</v>
+        <v>0.06129626282107029</v>
       </c>
     </row>
     <row r="22">
@@ -1223,7 +1223,7 @@
         <v>0.002296492137619096</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06368607064904148</v>
+        <v>0.0603566503944751</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1258,7 @@
         <v>0.001640437892880523</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06364415113519242</v>
+        <v>0.0602789247371711</v>
       </c>
     </row>
     <row r="24">
@@ -1293,7 +1293,7 @@
         <v>0.004013587538014103</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06426532270899599</v>
+        <v>0.06084251889860734</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>0.001754199765896327</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06407723733392075</v>
+        <v>0.06062404624854796</v>
       </c>
     </row>
     <row r="26">
@@ -1363,7 +1363,7 @@
         <v>0.003688390565347802</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06458275905495291</v>
+        <v>0.06108900269442889</v>
       </c>
     </row>
     <row r="27">
@@ -1398,7 +1398,7 @@
         <v>0.005536842008665997</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06533892783705547</v>
+        <v>0.06181564633635941</v>
       </c>
     </row>
     <row r="28">
@@ -1433,7 +1433,7 @@
         <v>0.001663020847562847</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06443304364891139</v>
+        <v>0.0609096261224579</v>
       </c>
     </row>
     <row r="29">
@@ -1468,7 +1468,7 @@
         <v>0.002412840153820187</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06459279000226997</v>
+        <v>0.06105970671111503</v>
       </c>
     </row>
     <row r="30">
@@ -1503,7 +1503,7 @@
         <v>0.002546594531832713</v>
       </c>
       <c r="K30" t="n">
-        <v>0.06460618251049395</v>
+        <v>0.0610705847575327</v>
       </c>
     </row>
     <row r="31">
@@ -1538,7 +1538,7 @@
         <v>0.002981083023973403</v>
       </c>
       <c r="K31" t="n">
-        <v>0.06486962195937644</v>
+        <v>0.06133004891808046</v>
       </c>
     </row>
   </sheetData>
@@ -12637,7 +12637,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="853">
@@ -12650,7 +12650,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="854">
@@ -12663,7 +12663,7 @@
         <v>0.61</v>
       </c>
       <c r="C854" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="855">
@@ -12676,7 +12676,7 @@
         <v>0.62</v>
       </c>
       <c r="C855" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="856">
@@ -12702,7 +12702,7 @@
         <v>0.64</v>
       </c>
       <c r="C857" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="858">

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Exchange_Series_0_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Exchange_Series_0_resultados_full.xlsx
@@ -523,7 +523,7 @@
         <v>0.01070962822707405</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06367289189221025</v>
+        <v>0.06268702499381441</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +558,7 @@
         <v>0.001446203492165878</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06261492436287155</v>
+        <v>0.06111996090024448</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>0.009201257429750474</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06440261356727407</v>
+        <v>0.06360225197636699</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>0.004011294608530868</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06435198607285336</v>
+        <v>0.06346223881963428</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>0.008808667061710898</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06604768093805236</v>
+        <v>0.06585544671806993</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0.00557772969979857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06639948274677197</v>
+        <v>0.06631264160335644</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +733,7 @@
         <v>0.002721354871373314</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06364794267290894</v>
+        <v>0.06226408183541285</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>0.001636822602943777</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06333143723864976</v>
+        <v>0.06181510961880553</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +803,7 @@
         <v>0.003819661490132098</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06416425361641742</v>
+        <v>0.062965952987673</v>
       </c>
     </row>
     <row r="11">
@@ -838,7 +838,7 @@
         <v>0.001794846151320982</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06288146566813223</v>
+        <v>0.06120248500932723</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
         <v>0.00471765014806462</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06402958059192523</v>
+        <v>0.06282450334017489</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>0.001568890274702881</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06290901441317796</v>
+        <v>0.06128260001480047</v>
       </c>
     </row>
     <row r="14">
@@ -943,7 +943,7 @@
         <v>0.002199317344416161</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06317054194421358</v>
+        <v>0.06167026043330849</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>0.00205355733878609</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06215600149056899</v>
+        <v>0.06027533272068614</v>
       </c>
     </row>
     <row r="16">
@@ -1013,7 +1013,7 @@
         <v>0.007887387672869265</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06411669166950765</v>
+        <v>0.06304666675059593</v>
       </c>
     </row>
     <row r="17">
@@ -1048,7 +1048,7 @@
         <v>0.00173283871823243</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06265117425624446</v>
+        <v>0.06099588630367184</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1083,7 @@
         <v>0.001671495845210622</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06252463399066391</v>
+        <v>0.06082286473731505</v>
       </c>
     </row>
     <row r="19">
@@ -1118,7 +1118,7 @@
         <v>0.004924491977094781</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06083144342933237</v>
+        <v>0.05856437277027503</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1153,7 @@
         <v>0.00250161711685581</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06027997571490235</v>
+        <v>0.05787724368231399</v>
       </c>
     </row>
     <row r="21">
@@ -1188,7 +1188,7 @@
         <v>0.004573013817331323</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06129626282107029</v>
+        <v>0.05929081722505029</v>
       </c>
     </row>
     <row r="22">
@@ -1223,7 +1223,7 @@
         <v>0.002296492137619096</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0603566503944751</v>
+        <v>0.05806374960577772</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1258,7 @@
         <v>0.001640437892880523</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0602789247371711</v>
+        <v>0.05799287717682698</v>
       </c>
     </row>
     <row r="24">
@@ -1293,7 +1293,7 @@
         <v>0.004013587538014103</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06084251889860734</v>
+        <v>0.05877454010639624</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>0.001754199765896327</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06062404624854796</v>
+        <v>0.05849229787604018</v>
       </c>
     </row>
     <row r="26">
@@ -1363,7 +1363,7 @@
         <v>0.003688390565347802</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06108900269442889</v>
+        <v>0.05913495397604011</v>
       </c>
     </row>
     <row r="27">
@@ -1398,7 +1398,7 @@
         <v>0.005536842008665997</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06181564633635941</v>
+        <v>0.06011184745876753</v>
       </c>
     </row>
     <row r="28">
@@ -1433,7 +1433,7 @@
         <v>0.001663020847562847</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0609096261224579</v>
+        <v>0.05886247712366907</v>
       </c>
     </row>
     <row r="29">
@@ -1468,7 +1468,7 @@
         <v>0.002412840153820187</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06105970671111503</v>
+        <v>0.0590559258373117</v>
       </c>
     </row>
     <row r="30">
@@ -1503,7 +1503,7 @@
         <v>0.002546594531832713</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0610705847575327</v>
+        <v>0.05906563789827476</v>
       </c>
     </row>
     <row r="31">
@@ -1538,7 +1538,7 @@
         <v>0.002981083023973403</v>
       </c>
       <c r="K31" t="n">
-        <v>0.06133004891808046</v>
+        <v>0.05941778062607644</v>
       </c>
     </row>
   </sheetData>
@@ -12611,7 +12611,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C850" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -12624,7 +12624,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C851" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852">
@@ -12637,7 +12637,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="853">
@@ -12650,7 +12650,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>0.7</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="854">
@@ -12663,7 +12663,7 @@
         <v>0.61</v>
       </c>
       <c r="C854" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="855">
@@ -12676,7 +12676,7 @@
         <v>0.62</v>
       </c>
       <c r="C855" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="856">
@@ -12689,7 +12689,7 @@
         <v>0.63</v>
       </c>
       <c r="C856" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="857">
@@ -12702,7 +12702,7 @@
         <v>0.64</v>
       </c>
       <c r="C857" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="858">
@@ -12715,7 +12715,7 @@
         <v>0.65</v>
       </c>
       <c r="C858" t="n">
-        <v>1</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="859">
@@ -12728,7 +12728,7 @@
         <v>0.66</v>
       </c>
       <c r="C859" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="860">
@@ -12741,7 +12741,7 @@
         <v>0.67</v>
       </c>
       <c r="C860" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="861">
@@ -12754,7 +12754,7 @@
         <v>0.68</v>
       </c>
       <c r="C861" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="862">
@@ -12767,7 +12767,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C862" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="863">
@@ -12780,7 +12780,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C863" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="864">
@@ -12793,7 +12793,7 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="C864" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="865">

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Exchange_Series_0_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Exchange_Series_0_resultados_full.xlsx
@@ -514,16 +514,16 @@
         <v>0.06844587827496475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009539120746583134</v>
+        <v>0.01016843301942249</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007245943280612299</v>
+        <v>0.007147097292575285</v>
       </c>
       <c r="J2" t="n">
         <v>0.01070962822707405</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06268702499381441</v>
+        <v>0.07048239168913209</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +549,16 @@
         <v>0.06522104473188453</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01217546103906288</v>
+        <v>0.012792504839104</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009562432451158941</v>
+        <v>0.009354567570943214</v>
       </c>
       <c r="J3" t="n">
         <v>0.001446203492165878</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06111996090024448</v>
+        <v>0.06614507377052864</v>
       </c>
     </row>
     <row r="4">
@@ -584,16 +584,16 @@
         <v>0.07241734990510564</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008179304095121341</v>
+        <v>0.007503247426878575</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005567688786836743</v>
+        <v>0.005485220032434793</v>
       </c>
       <c r="J4" t="n">
         <v>0.009201257429750474</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06360225197636699</v>
+        <v>0.07328220411541075</v>
       </c>
     </row>
     <row r="5">
@@ -619,16 +619,16 @@
         <v>0.07330597674349054</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007136989104869255</v>
+        <v>0.007019913362394933</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005297607288709144</v>
+        <v>0.005259546701843712</v>
       </c>
       <c r="J5" t="n">
         <v>0.004011294608530868</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06346223881963428</v>
+        <v>0.07317877337584786</v>
       </c>
     </row>
     <row r="6">
@@ -654,16 +654,16 @@
         <v>0.07944524509445269</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004939765547111608</v>
+        <v>0.004953296921232395</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004848699676697594</v>
+        <v>0.004945338069178389</v>
       </c>
       <c r="J6" t="n">
         <v>0.008808667061710898</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06585544671806993</v>
+        <v>0.07865785603520373</v>
       </c>
     </row>
     <row r="7">
@@ -689,16 +689,16 @@
         <v>0.08163484229436732</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004578220787188326</v>
+        <v>0.00469801694367571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005338187693390145</v>
+        <v>0.005356329426751771</v>
       </c>
       <c r="J7" t="n">
         <v>0.00557772969979857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06631264160335644</v>
+        <v>0.07975072577920006</v>
       </c>
     </row>
     <row r="8">
@@ -724,16 +724,16 @@
         <v>0.0735124437354083</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007031783725703084</v>
+        <v>0.00682683964643278</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006565058207127656</v>
+        <v>0.006458305896386594</v>
       </c>
       <c r="J8" t="n">
         <v>0.002721354871373314</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06226408183541285</v>
+        <v>0.07078975210743382</v>
       </c>
     </row>
     <row r="9">
@@ -759,16 +759,16 @@
         <v>0.07202713683312108</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007126325970122929</v>
+        <v>0.007540630452679255</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006811913143543803</v>
+        <v>0.006979927233690342</v>
       </c>
       <c r="J9" t="n">
         <v>0.001636822602943777</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06181510961880553</v>
+        <v>0.06949490978140445</v>
       </c>
     </row>
     <row r="10">
@@ -794,16 +794,16 @@
         <v>0.0745957149530613</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006325172163433784</v>
+        <v>0.006291797293353427</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006417817611404045</v>
+        <v>0.006100072811341145</v>
       </c>
       <c r="J10" t="n">
         <v>0.003819661490132098</v>
       </c>
       <c r="K10" t="n">
-        <v>0.062965952987673</v>
+        <v>0.07245423227047722</v>
       </c>
     </row>
     <row r="11">
@@ -829,16 +829,16 @@
         <v>0.06962317695138889</v>
       </c>
       <c r="H11" t="n">
-        <v>0.008773758644619043</v>
+        <v>0.008925296720933923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007534844315137172</v>
+        <v>0.007955778145931177</v>
       </c>
       <c r="J11" t="n">
         <v>0.001794846151320982</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06120248500932723</v>
+        <v>0.0674955348490907</v>
       </c>
     </row>
     <row r="12">
@@ -864,16 +864,16 @@
         <v>0.07339235392864761</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006818552937181036</v>
+        <v>0.006749586150289599</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006570890575186528</v>
+        <v>0.006407100921551858</v>
       </c>
       <c r="J12" t="n">
         <v>0.00471765014806462</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06282450334017489</v>
+        <v>0.07193682047917188</v>
       </c>
     </row>
     <row r="13">
@@ -899,16 +899,16 @@
         <v>0.06909365704861453</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008757771256580761</v>
+        <v>0.009191038572901749</v>
       </c>
       <c r="I13" t="n">
-        <v>0.007845254692121733</v>
+        <v>0.008124310737530862</v>
       </c>
       <c r="J13" t="n">
         <v>0.001568890274702881</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06128260001480047</v>
+        <v>0.06757843906296482</v>
       </c>
     </row>
     <row r="14">
@@ -934,16 +934,16 @@
         <v>0.06968746312832572</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0092097822148616</v>
+        <v>0.00873395573718045</v>
       </c>
       <c r="I14" t="n">
-        <v>0.008155800688253244</v>
+        <v>0.007830861482394518</v>
       </c>
       <c r="J14" t="n">
         <v>0.002199317344416161</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06167026043330849</v>
+        <v>0.06866543333163039</v>
       </c>
     </row>
     <row r="15">
@@ -969,16 +969,16 @@
         <v>0.06514981760386537</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01194405662374648</v>
+        <v>0.01210166266059809</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009922825915436202</v>
+        <v>0.009867410977211225</v>
       </c>
       <c r="J15" t="n">
         <v>0.00205355733878609</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06027533272068614</v>
+        <v>0.06419590245167128</v>
       </c>
     </row>
     <row r="16">
@@ -1004,16 +1004,16 @@
         <v>0.07230272656936662</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006893275947795176</v>
+        <v>0.00713622133289862</v>
       </c>
       <c r="I16" t="n">
-        <v>0.006604338775632069</v>
+        <v>0.006679947143475685</v>
       </c>
       <c r="J16" t="n">
         <v>0.007887387672869265</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06304666675059593</v>
+        <v>0.07222884204468456</v>
       </c>
     </row>
     <row r="17">
@@ -1039,16 +1039,16 @@
         <v>0.06695260983412554</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01099635343833313</v>
+        <v>0.01050074990159627</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00886640049518665</v>
+        <v>0.008940666956309032</v>
       </c>
       <c r="J17" t="n">
         <v>0.00173283871823243</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06099588630367184</v>
+        <v>0.0664448157025286</v>
       </c>
     </row>
     <row r="18">
@@ -1074,16 +1074,16 @@
         <v>0.06605392292791692</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01161001878636623</v>
+        <v>0.01112941016406678</v>
       </c>
       <c r="I18" t="n">
-        <v>0.009311871557453754</v>
+        <v>0.009323013329646999</v>
       </c>
       <c r="J18" t="n">
         <v>0.001671495845210622</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06082286473731505</v>
+        <v>0.06586376300805803</v>
       </c>
     </row>
     <row r="19">
@@ -1109,16 +1109,16 @@
         <v>0.05814085885416674</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01924598540767153</v>
+        <v>0.01947707592394588</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01674935730507056</v>
+        <v>0.01565289484783591</v>
       </c>
       <c r="J19" t="n">
         <v>0.004924491977094781</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05856437277027503</v>
+        <v>0.05782508428234672</v>
       </c>
     </row>
     <row r="20">
@@ -1144,16 +1144,16 @@
         <v>0.05435576827869523</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02491611488679681</v>
+        <v>0.02464941420818317</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02018541267487863</v>
+        <v>0.02067736180206041</v>
       </c>
       <c r="J20" t="n">
         <v>0.00250161711685581</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05787724368231399</v>
+        <v>0.05463158942623392</v>
       </c>
     </row>
     <row r="21">
@@ -1179,16 +1179,16 @@
         <v>0.05812235356775042</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02001585266385841</v>
+        <v>0.01933832890343936</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01555750599615588</v>
+        <v>0.01552018278123963</v>
       </c>
       <c r="J21" t="n">
         <v>0.004573013817331323</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05929081722505029</v>
+        <v>0.05988163409951348</v>
       </c>
     </row>
     <row r="22">
@@ -1214,16 +1214,16 @@
         <v>0.05322897032059904</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02605420528668086</v>
+        <v>0.02615436013108845</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02181660850445621</v>
+        <v>0.02217037191717661</v>
       </c>
       <c r="J22" t="n">
         <v>0.002296492137619096</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05806374960577772</v>
+        <v>0.05480938490058866</v>
       </c>
     </row>
     <row r="23">
@@ -1249,16 +1249,16 @@
         <v>0.05206233743110814</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002249565425561147</v>
+        <v>0.002175358362680625</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02118491322624818</v>
+        <v>0.02131869934719696</v>
       </c>
       <c r="J23" t="n">
         <v>0.001640437892880523</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05799287717682698</v>
+        <v>0.05425285644263295</v>
       </c>
     </row>
     <row r="24">
@@ -1284,16 +1284,16 @@
         <v>0.05419943973415291</v>
       </c>
       <c r="H24" t="n">
-        <v>0.003890678969865663</v>
+        <v>0.003892774085614307</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01825191916512997</v>
+        <v>0.01821947789756504</v>
       </c>
       <c r="J24" t="n">
         <v>0.004013587538014103</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05877454010639624</v>
+        <v>0.05731961376494852</v>
       </c>
     </row>
     <row r="25">
@@ -1319,16 +1319,16 @@
         <v>0.05298183783792611</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02691018724943291</v>
+        <v>0.02626270626425341</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02051891252540254</v>
+        <v>0.01979257652040064</v>
       </c>
       <c r="J25" t="n">
         <v>0.001754199765896327</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05849229787604018</v>
+        <v>0.0561262920626574</v>
       </c>
     </row>
     <row r="26">
@@ -1354,16 +1354,16 @@
         <v>0.05495686763194074</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004671492850915763</v>
+        <v>0.004802931592730451</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01646247091424556</v>
+        <v>0.01713669258461901</v>
       </c>
       <c r="J26" t="n">
         <v>0.003688390565347802</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05913495397604011</v>
+        <v>0.0586478450279249</v>
       </c>
     </row>
     <row r="27">
@@ -1389,16 +1389,16 @@
         <v>0.05823349190892049</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01775439975394974</v>
+        <v>0.01873924345830395</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01290384086692971</v>
+        <v>0.01379357076255527</v>
       </c>
       <c r="J27" t="n">
         <v>0.005536842008665997</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06011184745876753</v>
+        <v>0.06225727551040277</v>
       </c>
     </row>
     <row r="28">
@@ -1424,16 +1424,16 @@
         <v>0.05466934819698028</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02232622563290799</v>
+        <v>0.02349931992068695</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01762739539834242</v>
+        <v>0.01734860451969169</v>
       </c>
       <c r="J28" t="n">
         <v>0.001663020847562847</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05886247712366907</v>
+        <v>0.05784846341687461</v>
       </c>
     </row>
     <row r="29">
@@ -1459,16 +1459,16 @@
         <v>0.05529954733705267</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02217784283903504</v>
+        <v>0.02252125974904921</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01580536227083553</v>
+        <v>0.0165677763371778</v>
       </c>
       <c r="J29" t="n">
         <v>0.002412840153820187</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0590559258373117</v>
+        <v>0.05864128443994744</v>
       </c>
     </row>
     <row r="30">
@@ -1494,16 +1494,16 @@
         <v>0.05534972546883694</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02293324653720454</v>
+        <v>0.02237531735656564</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01687499592865591</v>
+        <v>0.01645666961133833</v>
       </c>
       <c r="J30" t="n">
         <v>0.002546594531832713</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05906563789827476</v>
+        <v>0.05868936058919787</v>
       </c>
     </row>
     <row r="31">
@@ -1529,16 +1529,16 @@
         <v>0.05649185858405289</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02020008726876537</v>
+        <v>0.02072724641001998</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0152660470113204</v>
+        <v>0.01522349719465131</v>
       </c>
       <c r="J31" t="n">
         <v>0.002981083023973403</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05941778062607644</v>
+        <v>0.06000854255266772</v>
       </c>
     </row>
   </sheetData>
@@ -4200,7 +4200,7 @@
         <v>0.04</v>
       </c>
       <c r="C203" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4213,7 +4213,7 @@
         <v>0.05</v>
       </c>
       <c r="C204" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="205">
@@ -4239,7 +4239,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="207">
@@ -4278,7 +4278,7 @@
         <v>0.09999999999999999</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="210">
@@ -4330,7 +4330,7 @@
         <v>0.14</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="214">
@@ -4343,7 +4343,7 @@
         <v>0.15</v>
       </c>
       <c r="C214" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="215">
@@ -4434,7 +4434,7 @@
         <v>0.22</v>
       </c>
       <c r="C221" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="222">
@@ -4486,7 +4486,7 @@
         <v>0.26</v>
       </c>
       <c r="C225" t="n">
-        <v>0.3</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="226">
@@ -4525,7 +4525,7 @@
         <v>0.29</v>
       </c>
       <c r="C228" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="229">
@@ -4538,7 +4538,7 @@
         <v>0.3</v>
       </c>
       <c r="C229" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="230">
@@ -4551,7 +4551,7 @@
         <v>0.31</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="231">
@@ -4655,7 +4655,7 @@
         <v>0.39</v>
       </c>
       <c r="C238" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="239">
@@ -4668,7 +4668,7 @@
         <v>0.4</v>
       </c>
       <c r="C239" t="n">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="240">
@@ -4720,7 +4720,7 @@
         <v>0.44</v>
       </c>
       <c r="C243" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="244">
@@ -4733,7 +4733,7 @@
         <v>0.45</v>
       </c>
       <c r="C244" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="245">
@@ -4876,7 +4876,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C255" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="256">
@@ -4954,7 +4954,7 @@
         <v>0.62</v>
       </c>
       <c r="C261" t="n">
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="262">
@@ -5084,7 +5084,7 @@
         <v>0.72</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="272">
@@ -5149,7 +5149,7 @@
         <v>0.77</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="277">
@@ -5201,7 +5201,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C280" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="281">
@@ -5214,7 +5214,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C281" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="282">
@@ -5370,7 +5370,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="C293" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="294">
@@ -7788,7 +7788,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C479" t="n">
-        <v>0.1</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="480">
@@ -7814,7 +7814,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C481" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="482">
@@ -7853,7 +7853,7 @@
         <v>0.87</v>
       </c>
       <c r="C484" t="n">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="485">
@@ -7866,7 +7866,7 @@
         <v>0.88</v>
       </c>
       <c r="C485" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="486">
@@ -7879,7 +7879,7 @@
         <v>0.89</v>
       </c>
       <c r="C486" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="487">
@@ -7892,7 +7892,7 @@
         <v>0.9</v>
       </c>
       <c r="C487" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="488">
@@ -7918,7 +7918,7 @@
         <v>0.92</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="490">
@@ -8022,7 +8022,7 @@
         <v>0.01</v>
       </c>
       <c r="C497" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -8061,7 +8061,7 @@
         <v>0.04</v>
       </c>
       <c r="C500" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="501">
@@ -8074,7 +8074,7 @@
         <v>0.05</v>
       </c>
       <c r="C501" t="n">
-        <v>0.2</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="502">
@@ -8087,7 +8087,7 @@
         <v>0.06</v>
       </c>
       <c r="C502" t="n">
-        <v>0.3</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="503">
@@ -8113,7 +8113,7 @@
         <v>0.08</v>
       </c>
       <c r="C504" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="505">
@@ -8230,7 +8230,7 @@
         <v>0.17</v>
       </c>
       <c r="C513" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="514">
@@ -8243,7 +8243,7 @@
         <v>0.18</v>
       </c>
       <c r="C514" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="515">
@@ -8256,7 +8256,7 @@
         <v>0.19</v>
       </c>
       <c r="C515" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="516">
@@ -8282,7 +8282,7 @@
         <v>0.21</v>
       </c>
       <c r="C517" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="518">
@@ -8295,7 +8295,7 @@
         <v>0.22</v>
       </c>
       <c r="C518" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="519">
@@ -8308,7 +8308,7 @@
         <v>0.23</v>
       </c>
       <c r="C519" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="520">
@@ -8321,7 +8321,7 @@
         <v>0.24</v>
       </c>
       <c r="C520" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="521">
@@ -8334,7 +8334,7 @@
         <v>0.25</v>
       </c>
       <c r="C521" t="n">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="522">
@@ -8347,7 +8347,7 @@
         <v>0.26</v>
       </c>
       <c r="C522" t="n">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="523">
@@ -8360,7 +8360,7 @@
         <v>0.27</v>
       </c>
       <c r="C523" t="n">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="524">
@@ -8386,7 +8386,7 @@
         <v>0.29</v>
       </c>
       <c r="C525" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="526">
@@ -8399,7 +8399,7 @@
         <v>0.3</v>
       </c>
       <c r="C526" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="527">
@@ -8451,7 +8451,7 @@
         <v>0.34</v>
       </c>
       <c r="C530" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="531">
@@ -8464,7 +8464,7 @@
         <v>0.35</v>
       </c>
       <c r="C531" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="532">
@@ -8477,7 +8477,7 @@
         <v>0.36</v>
       </c>
       <c r="C532" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="533">
@@ -8633,7 +8633,7 @@
         <v>0.48</v>
       </c>
       <c r="C544" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="545">
@@ -8646,7 +8646,7 @@
         <v>0.49</v>
       </c>
       <c r="C545" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="546">
@@ -8659,7 +8659,7 @@
         <v>0.5</v>
       </c>
       <c r="C546" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="547">
@@ -8672,7 +8672,7 @@
         <v>0.51</v>
       </c>
       <c r="C547" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="548">
@@ -8815,7 +8815,7 @@
         <v>0.62</v>
       </c>
       <c r="C558" t="n">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="559">
@@ -8828,7 +8828,7 @@
         <v>0.63</v>
       </c>
       <c r="C559" t="n">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="560">
@@ -8841,7 +8841,7 @@
         <v>0.64</v>
       </c>
       <c r="C560" t="n">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="561">
@@ -9062,7 +9062,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C577" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="578">
@@ -9075,7 +9075,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C578" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="579">
@@ -9088,7 +9088,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C579" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="580">
@@ -9114,7 +9114,7 @@
         <v>0.85</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="582">
@@ -9127,7 +9127,7 @@
         <v>0.86</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="583">
@@ -9348,7 +9348,7 @@
         <v>0.04</v>
       </c>
       <c r="C599" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="600">
@@ -9361,7 +9361,7 @@
         <v>0.05</v>
       </c>
       <c r="C600" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="601">
@@ -9387,7 +9387,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C602" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="603">
@@ -9400,7 +9400,7 @@
         <v>0.08</v>
       </c>
       <c r="C603" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="604">
@@ -9413,7 +9413,7 @@
         <v>0.09</v>
       </c>
       <c r="C604" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="605">
@@ -9426,7 +9426,7 @@
         <v>0.09999999999999999</v>
       </c>
       <c r="C605" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="606">
@@ -9452,7 +9452,7 @@
         <v>0.12</v>
       </c>
       <c r="C607" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="608">
@@ -9465,7 +9465,7 @@
         <v>0.13</v>
       </c>
       <c r="C608" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="609">
@@ -9478,7 +9478,7 @@
         <v>0.14</v>
       </c>
       <c r="C609" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="610">
@@ -9491,7 +9491,7 @@
         <v>0.15</v>
       </c>
       <c r="C610" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="611">
@@ -9504,7 +9504,7 @@
         <v>0.16</v>
       </c>
       <c r="C611" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="612">
@@ -9517,7 +9517,7 @@
         <v>0.17</v>
       </c>
       <c r="C612" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="613">
@@ -9569,7 +9569,7 @@
         <v>0.21</v>
       </c>
       <c r="C616" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="617">
@@ -9582,7 +9582,7 @@
         <v>0.22</v>
       </c>
       <c r="C617" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="618">
@@ -9595,7 +9595,7 @@
         <v>0.23</v>
       </c>
       <c r="C618" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="619">
@@ -9673,7 +9673,7 @@
         <v>0.29</v>
       </c>
       <c r="C624" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="625">
@@ -9686,7 +9686,7 @@
         <v>0.3</v>
       </c>
       <c r="C625" t="n">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="626">
@@ -9699,7 +9699,7 @@
         <v>0.31</v>
       </c>
       <c r="C626" t="n">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="627">
@@ -9725,7 +9725,7 @@
         <v>0.33</v>
       </c>
       <c r="C628" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="629">
@@ -9738,7 +9738,7 @@
         <v>0.34</v>
       </c>
       <c r="C629" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="630">
@@ -9751,7 +9751,7 @@
         <v>0.35</v>
       </c>
       <c r="C630" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="631">
@@ -9777,7 +9777,7 @@
         <v>0.37</v>
       </c>
       <c r="C632" t="n">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="633">
@@ -9790,7 +9790,7 @@
         <v>0.38</v>
       </c>
       <c r="C633" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="634">
@@ -9803,7 +9803,7 @@
         <v>0.39</v>
       </c>
       <c r="C634" t="n">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="635">
@@ -9816,7 +9816,7 @@
         <v>0.4</v>
       </c>
       <c r="C635" t="n">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="636">
@@ -9829,7 +9829,7 @@
         <v>0.41</v>
       </c>
       <c r="C636" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="637">
@@ -9842,7 +9842,7 @@
         <v>0.42</v>
       </c>
       <c r="C637" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="638">
@@ -9855,7 +9855,7 @@
         <v>0.43</v>
       </c>
       <c r="C638" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="639">
@@ -9985,7 +9985,7 @@
         <v>0.53</v>
       </c>
       <c r="C648" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="649">
@@ -9998,7 +9998,7 @@
         <v>0.54</v>
       </c>
       <c r="C649" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="650">
@@ -10011,7 +10011,7 @@
         <v>0.55</v>
       </c>
       <c r="C650" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="651">
@@ -10063,7 +10063,7 @@
         <v>0.59</v>
       </c>
       <c r="C654" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -10076,7 +10076,7 @@
         <v>0.6</v>
       </c>
       <c r="C655" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -10089,7 +10089,7 @@
         <v>0.61</v>
       </c>
       <c r="C656" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
@@ -12637,7 +12637,7 @@
         <v>0.59</v>
       </c>
       <c r="C852" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853">
@@ -12650,7 +12650,7 @@
         <v>0.6</v>
       </c>
       <c r="C853" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854">
@@ -12663,7 +12663,7 @@
         <v>0.61</v>
       </c>
       <c r="C854" t="n">
-        <v>0.4333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855">
@@ -12676,7 +12676,7 @@
         <v>0.62</v>
       </c>
       <c r="C855" t="n">
-        <v>0.4666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856">
@@ -12689,7 +12689,7 @@
         <v>0.63</v>
       </c>
       <c r="C856" t="n">
-        <v>0.6333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -12702,7 +12702,7 @@
         <v>0.64</v>
       </c>
       <c r="C857" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858">
@@ -12715,7 +12715,7 @@
         <v>0.65</v>
       </c>
       <c r="C858" t="n">
-        <v>0.7666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859">
@@ -12728,7 +12728,7 @@
         <v>0.66</v>
       </c>
       <c r="C859" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860">
@@ -12741,7 +12741,7 @@
         <v>0.67</v>
       </c>
       <c r="C860" t="n">
-        <v>0.9333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861">
@@ -12754,7 +12754,7 @@
         <v>0.68</v>
       </c>
       <c r="C861" t="n">
-        <v>0.9333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862">
@@ -12767,7 +12767,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C862" t="n">
-        <v>0.9333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863">
@@ -12780,7 +12780,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C863" t="n">
-        <v>0.9333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -12793,7 +12793,7 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="C864" t="n">
-        <v>0.9666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -12806,7 +12806,7 @@
         <v>0.72</v>
       </c>
       <c r="C865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -12819,7 +12819,7 @@
         <v>0.73</v>
       </c>
       <c r="C866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867">
@@ -12832,7 +12832,7 @@
         <v>0.74</v>
       </c>
       <c r="C867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -12845,7 +12845,7 @@
         <v>0.75</v>
       </c>
       <c r="C868" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869">
@@ -12858,7 +12858,7 @@
         <v>0.76</v>
       </c>
       <c r="C869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870">
@@ -12871,7 +12871,7 @@
         <v>0.77</v>
       </c>
       <c r="C870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -12884,7 +12884,7 @@
         <v>0.78</v>
       </c>
       <c r="C871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872">
@@ -12897,7 +12897,7 @@
         <v>0.79</v>
       </c>
       <c r="C872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
@@ -12910,7 +12910,7 @@
         <v>0.8</v>
       </c>
       <c r="C873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874">
@@ -12923,7 +12923,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875">
@@ -12936,7 +12936,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876">
@@ -12949,7 +12949,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877">
@@ -12962,7 +12962,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -12975,7 +12975,7 @@
         <v>0.85</v>
       </c>
       <c r="C878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879">
@@ -12988,7 +12988,7 @@
         <v>0.86</v>
       </c>
       <c r="C879" t="n">
-        <v>1</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="880">
@@ -13001,7 +13001,7 @@
         <v>0.87</v>
       </c>
       <c r="C880" t="n">
-        <v>1</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="881">
@@ -13014,7 +13014,7 @@
         <v>0.88</v>
       </c>
       <c r="C881" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="882">
@@ -13027,7 +13027,7 @@
         <v>0.89</v>
       </c>
       <c r="C882" t="n">
-        <v>1</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="883">
@@ -13040,7 +13040,7 @@
         <v>0.9</v>
       </c>
       <c r="C883" t="n">
-        <v>1</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="884">
@@ -13053,7 +13053,7 @@
         <v>0.91</v>
       </c>
       <c r="C884" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="885">

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Exchange_Series_0_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Exchange_Series_0_resultados_full.xlsx
@@ -508,7 +508,7 @@
         <v>0.01614628621703295</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0162398036301046</v>
+        <v>0.01783993921315961</v>
       </c>
       <c r="G2" t="n">
         <v>0.06844587827496475</v>
@@ -523,7 +523,7 @@
         <v>0.01070962822707405</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07048239168913209</v>
+        <v>0.0722014415930835</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +543,7 @@
         <v>0.003739851803176598</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01216420808570728</v>
+        <v>0.004282204768408653</v>
       </c>
       <c r="G3" t="n">
         <v>0.06522104473188453</v>
@@ -558,7 +558,7 @@
         <v>0.001446203492165878</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06614507377052864</v>
+        <v>0.06786938433359105</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         <v>0.003467655230356687</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02144984925913677</v>
+        <v>0.003751919300059664</v>
       </c>
       <c r="G4" t="n">
         <v>0.07241734990510564</v>
@@ -593,7 +593,7 @@
         <v>0.009201257429750474</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07328220411541075</v>
+        <v>0.0748836521041642</v>
       </c>
     </row>
     <row r="5">
@@ -613,7 +613,7 @@
         <v>0.006624115115415063</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02263981665301189</v>
+        <v>0.006883137333142628</v>
       </c>
       <c r="G5" t="n">
         <v>0.07330597674349054</v>
@@ -628,7 +628,7 @@
         <v>0.004011294608530868</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07317877337584786</v>
+        <v>0.074731467325148</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +648,7 @@
         <v>0.00661881544358464</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03026982198815422</v>
+        <v>0.006689914755054269</v>
       </c>
       <c r="G6" t="n">
         <v>0.07944524509445269</v>
@@ -663,7 +663,7 @@
         <v>0.008808667061710898</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07865785603520373</v>
+        <v>0.0800650755143382</v>
       </c>
     </row>
     <row r="7">
@@ -683,7 +683,7 @@
         <v>0.00681019830733687</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03295642219643667</v>
+        <v>0.006756526246609091</v>
       </c>
       <c r="G7" t="n">
         <v>0.08163484229436732</v>
@@ -698,7 +698,7 @@
         <v>0.00557772969979857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07975072577920006</v>
+        <v>0.08109084356992</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +718,7 @@
         <v>0.004402977213139231</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02313784922289715</v>
+        <v>0.004946512948384862</v>
       </c>
       <c r="G8" t="n">
         <v>0.0735124437354083</v>
@@ -733,7 +733,7 @@
         <v>0.002721354871373314</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07078975210743382</v>
+        <v>0.07214960576806473</v>
       </c>
     </row>
     <row r="9">
@@ -753,7 +753,7 @@
         <v>0.008260056725198053</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02136384794396732</v>
+        <v>0.009513194190427557</v>
       </c>
       <c r="G9" t="n">
         <v>0.07202713683312108</v>
@@ -768,7 +768,7 @@
         <v>0.001636822602943777</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06949490978140445</v>
+        <v>0.07078052550747402</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.001304124982578563</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02466055061593028</v>
+        <v>0.001290855285108547</v>
       </c>
       <c r="G10" t="n">
         <v>0.0745957149530613</v>
@@ -803,7 +803,7 @@
         <v>0.003819661490132098</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07245423227047722</v>
+        <v>0.07372589815638664</v>
       </c>
     </row>
     <row r="11">
@@ -823,7 +823,7 @@
         <v>0.001829281768645487</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01849863395450601</v>
+        <v>0.001700603840621106</v>
       </c>
       <c r="G11" t="n">
         <v>0.06962317695138889</v>
@@ -838,7 +838,7 @@
         <v>0.001794846151320982</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0674955348490907</v>
+        <v>0.06883338525936278</v>
       </c>
     </row>
     <row r="12">
@@ -858,7 +858,7 @@
         <v>0.001346402855656845</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0233437892310606</v>
+        <v>0.001421326321510969</v>
       </c>
       <c r="G12" t="n">
         <v>0.07339235392864761</v>
@@ -873,7 +873,7 @@
         <v>0.00471765014806462</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07193682047917188</v>
+        <v>0.07326954434900004</v>
       </c>
     </row>
     <row r="13">
@@ -893,7 +893,7 @@
         <v>0.001613284015736998</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01800819792079426</v>
+        <v>0.001621622933307285</v>
       </c>
       <c r="G13" t="n">
         <v>0.06909365704861453</v>
@@ -908,7 +908,7 @@
         <v>0.001568890274702881</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06757843906296482</v>
+        <v>0.06899984177184104</v>
       </c>
     </row>
     <row r="14">
@@ -928,7 +928,7 @@
         <v>0.002280210446805301</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01886253890750893</v>
+        <v>0.002185582558046477</v>
       </c>
       <c r="G14" t="n">
         <v>0.06968746312832572</v>
@@ -943,7 +943,7 @@
         <v>0.002199317344416161</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06866543333163039</v>
+        <v>0.07009315393281269</v>
       </c>
     </row>
     <row r="15">
@@ -963,7 +963,7 @@
         <v>0.003888584977281785</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01313734272939877</v>
+        <v>0.003731276328816888</v>
       </c>
       <c r="G15" t="n">
         <v>0.06514981760386537</v>
@@ -978,7 +978,7 @@
         <v>0.00205355733878609</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06419590245167128</v>
+        <v>0.06571351079917284</v>
       </c>
     </row>
     <row r="16">
@@ -998,7 +998,7 @@
         <v>0.002408191014294137</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02234784210848675</v>
+        <v>0.002475216662407108</v>
       </c>
       <c r="G16" t="n">
         <v>0.07230272656936662</v>
@@ -1013,7 +1013,7 @@
         <v>0.007887387672869265</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07222884204468456</v>
+        <v>0.07369924827908847</v>
       </c>
     </row>
     <row r="17">
@@ -1033,7 +1033,7 @@
         <v>0.00208454109821513</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01564933617710167</v>
+        <v>0.002248833502489411</v>
       </c>
       <c r="G17" t="n">
         <v>0.06695260983412554</v>
@@ -1048,7 +1048,7 @@
         <v>0.00173283871823243</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0664448157025286</v>
+        <v>0.06800527021082133</v>
       </c>
     </row>
     <row r="18">
@@ -1068,7 +1068,7 @@
         <v>0.005246282287628326</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01458861264994964</v>
+        <v>0.00535065489884508</v>
       </c>
       <c r="G18" t="n">
         <v>0.06605392292791692</v>
@@ -1083,7 +1083,7 @@
         <v>0.001671495845210622</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06586376300805803</v>
+        <v>0.06740559755675388</v>
       </c>
     </row>
     <row r="19">
@@ -1103,7 +1103,7 @@
         <v>0.009692773532827527</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004748349695774698</v>
+        <v>0.009726398512557449</v>
       </c>
       <c r="G19" t="n">
         <v>0.05814085885416674</v>
@@ -1118,7 +1118,7 @@
         <v>0.004924491977094781</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05782508428234672</v>
+        <v>0.05947847452604793</v>
       </c>
     </row>
     <row r="20">
@@ -1138,7 +1138,7 @@
         <v>0.01122906581426777</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001569230839437539</v>
+        <v>0.01146427212758337</v>
       </c>
       <c r="G20" t="n">
         <v>0.05435576827869523</v>
@@ -1153,7 +1153,7 @@
         <v>0.00250161711685581</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05463158942623392</v>
+        <v>0.05630243195541474</v>
       </c>
     </row>
     <row r="21">
@@ -1173,7 +1173,7 @@
         <v>0.001432627162581623</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004869567205023379</v>
+        <v>0.001536448597011287</v>
       </c>
       <c r="G21" t="n">
         <v>0.05812235356775042</v>
@@ -1188,7 +1188,7 @@
         <v>0.004573013817331323</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05988163409951348</v>
+        <v>0.0615408860943991</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>0.001457193235030099</v>
       </c>
       <c r="F22" t="n">
-        <v>0.001303027163818271</v>
+        <v>0.00158493336693648</v>
       </c>
       <c r="G22" t="n">
         <v>0.05322897032059904</v>
@@ -1223,7 +1223,7 @@
         <v>0.002296492137619096</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05480938490058866</v>
+        <v>0.05659876918128037</v>
       </c>
     </row>
     <row r="23">
@@ -1243,7 +1243,7 @@
         <v>0.005917154845568915</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001533292282597217</v>
+        <v>0.0048963850166714</v>
       </c>
       <c r="G23" t="n">
         <v>0.05206233743110814</v>
@@ -1258,7 +1258,7 @@
         <v>0.001640437892880523</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05425285644263295</v>
+        <v>0.05606817906878569</v>
       </c>
     </row>
     <row r="24">
@@ -1278,7 +1278,7 @@
         <v>0.00141497414389372</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001603631232224356</v>
+        <v>0.001941489358762408</v>
       </c>
       <c r="G24" t="n">
         <v>0.05419943973415291</v>
@@ -1293,7 +1293,7 @@
         <v>0.004013587538014103</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05731961376494852</v>
+        <v>0.05915013560756412</v>
       </c>
     </row>
     <row r="25">
@@ -1313,7 +1313,7 @@
         <v>0.001512718856009757</v>
       </c>
       <c r="F25" t="n">
-        <v>0.001298671590579282</v>
+        <v>0.002245538571546729</v>
       </c>
       <c r="G25" t="n">
         <v>0.05298183783792611</v>
@@ -1328,7 +1328,7 @@
         <v>0.001754199765896327</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0561262920626574</v>
+        <v>0.05799479558828258</v>
       </c>
     </row>
     <row r="26">
@@ -1348,7 +1348,7 @@
         <v>0.001585334576587295</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002127696591496663</v>
+        <v>0.001961645620400823</v>
       </c>
       <c r="G26" t="n">
         <v>0.05495686763194074</v>
@@ -1363,7 +1363,7 @@
         <v>0.003688390565347802</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0586478450279249</v>
+        <v>0.06049277682518044</v>
       </c>
     </row>
     <row r="27">
@@ -1383,7 +1383,7 @@
         <v>0.004770935918501218</v>
       </c>
       <c r="F27" t="n">
-        <v>0.005410431040856502</v>
+        <v>0.00551460770283742</v>
       </c>
       <c r="G27" t="n">
         <v>0.05823349190892049</v>
@@ -1398,7 +1398,7 @@
         <v>0.005536842008665997</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06225727551040277</v>
+        <v>0.06405975728211558</v>
       </c>
     </row>
     <row r="28">
@@ -1418,7 +1418,7 @@
         <v>0.001340932846911981</v>
       </c>
       <c r="F28" t="n">
-        <v>0.002003017023331481</v>
+        <v>0.001662370689101457</v>
       </c>
       <c r="G28" t="n">
         <v>0.05466934819698028</v>
@@ -1433,7 +1433,7 @@
         <v>0.001663020847562847</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05784846341687461</v>
+        <v>0.05966279397235718</v>
       </c>
     </row>
     <row r="29">
@@ -1453,7 +1453,7 @@
         <v>0.002835481273607435</v>
       </c>
       <c r="F29" t="n">
-        <v>0.002526421549428535</v>
+        <v>0.002596715935674123</v>
       </c>
       <c r="G29" t="n">
         <v>0.05529954733705267</v>
@@ -1468,7 +1468,7 @@
         <v>0.002412840153820187</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05864128443994744</v>
+        <v>0.06038308729220474</v>
       </c>
     </row>
     <row r="30">
@@ -1488,7 +1488,7 @@
         <v>0.001312881083166952</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002615516215018636</v>
+        <v>0.001545999848137671</v>
       </c>
       <c r="G30" t="n">
         <v>0.05534972546883694</v>
@@ -1503,7 +1503,7 @@
         <v>0.002546594531832713</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05868936058919787</v>
+        <v>0.06040274614145286</v>
       </c>
     </row>
     <row r="31">
@@ -1523,7 +1523,7 @@
         <v>0.002206894083366372</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003733203606088171</v>
+        <v>0.002276919885035803</v>
       </c>
       <c r="G31" t="n">
         <v>0.05649185858405289</v>
@@ -1538,7 +1538,7 @@
         <v>0.002981083023973403</v>
       </c>
       <c r="K31" t="n">
-        <v>0.06000854255266772</v>
+        <v>0.06168278182200356</v>
       </c>
     </row>
   </sheetData>
@@ -5448,7 +5448,7 @@
         <v>0.01</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="300">
@@ -5461,7 +5461,7 @@
         <v>0.02</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="301">
@@ -5474,7 +5474,7 @@
         <v>0.03</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="302">
@@ -5487,7 +5487,7 @@
         <v>0.04</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="303">
@@ -5500,7 +5500,7 @@
         <v>0.05</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="304">
@@ -5513,7 +5513,7 @@
         <v>0.06</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="305">
@@ -5526,7 +5526,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="306">
@@ -5539,7 +5539,7 @@
         <v>0.08</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="307">
@@ -5552,7 +5552,7 @@
         <v>0.09</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="308">
@@ -5565,7 +5565,7 @@
         <v>0.09999999999999999</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="309">
@@ -5578,7 +5578,7 @@
         <v>0.11</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="310">
@@ -5591,7 +5591,7 @@
         <v>0.12</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="311">
@@ -5604,7 +5604,7 @@
         <v>0.13</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="312">
@@ -5617,7 +5617,7 @@
         <v>0.14</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="313">
@@ -5630,7 +5630,7 @@
         <v>0.15</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="314">
@@ -5643,7 +5643,7 @@
         <v>0.16</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="315">
@@ -5656,7 +5656,7 @@
         <v>0.17</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="316">
@@ -5669,7 +5669,7 @@
         <v>0.18</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="317">
@@ -5682,7 +5682,7 @@
         <v>0.19</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="318">
@@ -5695,7 +5695,7 @@
         <v>0.2</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="319">
@@ -5708,7 +5708,7 @@
         <v>0.21</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="320">
@@ -5721,7 +5721,7 @@
         <v>0.22</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="321">
@@ -5734,7 +5734,7 @@
         <v>0.23</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="322">
@@ -5747,7 +5747,7 @@
         <v>0.24</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="323">
@@ -5760,7 +5760,7 @@
         <v>0.25</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="324">
@@ -5773,7 +5773,7 @@
         <v>0.26</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="325">
@@ -5786,7 +5786,7 @@
         <v>0.27</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="326">
@@ -5799,7 +5799,7 @@
         <v>0.28</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="327">
@@ -5812,7 +5812,7 @@
         <v>0.29</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="328">
@@ -5825,7 +5825,7 @@
         <v>0.3</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="329">
@@ -5838,7 +5838,7 @@
         <v>0.31</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="330">
@@ -5851,7 +5851,7 @@
         <v>0.32</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="331">
@@ -5864,7 +5864,7 @@
         <v>0.33</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="332">
@@ -5877,7 +5877,7 @@
         <v>0.34</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="333">
@@ -5890,7 +5890,7 @@
         <v>0.35</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="334">
@@ -5903,7 +5903,7 @@
         <v>0.36</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="335">
@@ -5916,7 +5916,7 @@
         <v>0.37</v>
       </c>
       <c r="C335" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="336">
@@ -5929,7 +5929,7 @@
         <v>0.38</v>
       </c>
       <c r="C336" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="337">
@@ -5942,7 +5942,7 @@
         <v>0.39</v>
       </c>
       <c r="C337" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="338">
@@ -5955,7 +5955,7 @@
         <v>0.4</v>
       </c>
       <c r="C338" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="339">
@@ -5968,7 +5968,7 @@
         <v>0.41</v>
       </c>
       <c r="C339" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="340">
@@ -5981,7 +5981,7 @@
         <v>0.42</v>
       </c>
       <c r="C340" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="341">
@@ -5994,7 +5994,7 @@
         <v>0.43</v>
       </c>
       <c r="C341" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="342">
@@ -6007,7 +6007,7 @@
         <v>0.44</v>
       </c>
       <c r="C342" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="343">
@@ -6020,7 +6020,7 @@
         <v>0.45</v>
       </c>
       <c r="C343" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="344">
@@ -6033,7 +6033,7 @@
         <v>0.46</v>
       </c>
       <c r="C344" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="345">
@@ -6046,7 +6046,7 @@
         <v>0.47</v>
       </c>
       <c r="C345" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="346">
@@ -6059,7 +6059,7 @@
         <v>0.48</v>
       </c>
       <c r="C346" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="347">
@@ -6072,7 +6072,7 @@
         <v>0.49</v>
       </c>
       <c r="C347" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="348">
@@ -6085,7 +6085,7 @@
         <v>0.5</v>
       </c>
       <c r="C348" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="349">
@@ -6098,7 +6098,7 @@
         <v>0.51</v>
       </c>
       <c r="C349" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="350">
@@ -6111,7 +6111,7 @@
         <v>0.52</v>
       </c>
       <c r="C350" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="351">
@@ -6124,7 +6124,7 @@
         <v>0.53</v>
       </c>
       <c r="C351" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="352">
@@ -6137,7 +6137,7 @@
         <v>0.54</v>
       </c>
       <c r="C352" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="353">
@@ -6150,7 +6150,7 @@
         <v>0.55</v>
       </c>
       <c r="C353" t="n">
-        <v>0.1</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="354">
@@ -6163,7 +6163,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C354" t="n">
-        <v>0.1</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="355">
@@ -6176,7 +6176,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="C355" t="n">
-        <v>0.1</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="356">
@@ -6189,7 +6189,7 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="C356" t="n">
-        <v>0.1</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="357">
@@ -6202,7 +6202,7 @@
         <v>0.59</v>
       </c>
       <c r="C357" t="n">
-        <v>0.1</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="358">
@@ -6215,7 +6215,7 @@
         <v>0.6</v>
       </c>
       <c r="C358" t="n">
-        <v>0.1</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="359">
@@ -6228,7 +6228,7 @@
         <v>0.61</v>
       </c>
       <c r="C359" t="n">
-        <v>0.1</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="360">
@@ -6241,7 +6241,7 @@
         <v>0.62</v>
       </c>
       <c r="C360" t="n">
-        <v>0.1</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="361">
@@ -6254,7 +6254,7 @@
         <v>0.63</v>
       </c>
       <c r="C361" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="362">
@@ -6267,7 +6267,7 @@
         <v>0.64</v>
       </c>
       <c r="C362" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="363">
@@ -6280,7 +6280,7 @@
         <v>0.65</v>
       </c>
       <c r="C363" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="364">
@@ -6293,7 +6293,7 @@
         <v>0.66</v>
       </c>
       <c r="C364" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="365">
@@ -6306,7 +6306,7 @@
         <v>0.67</v>
       </c>
       <c r="C365" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="366">
@@ -6319,7 +6319,7 @@
         <v>0.68</v>
       </c>
       <c r="C366" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="367">
@@ -6332,7 +6332,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="C367" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="368">
@@ -6345,7 +6345,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C368" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="369">
@@ -6358,7 +6358,7 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="C369" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="370">
@@ -6371,7 +6371,7 @@
         <v>0.72</v>
       </c>
       <c r="C370" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="371">
@@ -6384,7 +6384,7 @@
         <v>0.73</v>
       </c>
       <c r="C371" t="n">
-        <v>0.2</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="372">
@@ -6397,7 +6397,7 @@
         <v>0.74</v>
       </c>
       <c r="C372" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="373">
@@ -6410,7 +6410,7 @@
         <v>0.75</v>
       </c>
       <c r="C373" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="374">
@@ -6423,7 +6423,7 @@
         <v>0.76</v>
       </c>
       <c r="C374" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="375">
@@ -6436,7 +6436,7 @@
         <v>0.77</v>
       </c>
       <c r="C375" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="376">
@@ -6449,7 +6449,7 @@
         <v>0.78</v>
       </c>
       <c r="C376" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="377">
@@ -6462,7 +6462,7 @@
         <v>0.79</v>
       </c>
       <c r="C377" t="n">
-        <v>0.3</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="378">
@@ -6475,7 +6475,7 @@
         <v>0.8</v>
       </c>
       <c r="C378" t="n">
-        <v>0.3</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="379">
@@ -6488,7 +6488,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C379" t="n">
-        <v>0.3</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="380">
@@ -6501,7 +6501,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="C380" t="n">
-        <v>0.3</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="381">
@@ -6514,7 +6514,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="C381" t="n">
-        <v>0.3</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="382">
@@ -6527,7 +6527,7 @@
         <v>0.8400000000000001</v>
       </c>
       <c r="C382" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="383">
@@ -6540,7 +6540,7 @@
         <v>0.85</v>
       </c>
       <c r="C383" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="384">
@@ -6553,7 +6553,7 @@
         <v>0.86</v>
       </c>
       <c r="C384" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="385">
@@ -6566,7 +6566,7 @@
         <v>0.87</v>
       </c>
       <c r="C385" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="386">
@@ -6579,7 +6579,7 @@
         <v>0.88</v>
       </c>
       <c r="C386" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="387">
@@ -6592,7 +6592,7 @@
         <v>0.89</v>
       </c>
       <c r="C387" t="n">
-        <v>0.4</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="388">
@@ -6605,7 +6605,7 @@
         <v>0.9</v>
       </c>
       <c r="C388" t="n">
-        <v>0.4</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="389">
@@ -6618,7 +6618,7 @@
         <v>0.91</v>
       </c>
       <c r="C389" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="390">
@@ -6631,7 +6631,7 @@
         <v>0.92</v>
       </c>
       <c r="C390" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="391">
@@ -6644,7 +6644,7 @@
         <v>0.93</v>
       </c>
       <c r="C391" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="392">
@@ -6657,7 +6657,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="C392" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="393">
@@ -6670,7 +6670,7 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="C393" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="394">
@@ -6683,7 +6683,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="C394" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="395">
@@ -6696,7 +6696,7 @@
         <v>0.97</v>
       </c>
       <c r="C395" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="396">
@@ -6709,7 +6709,7 @@
         <v>0.98</v>
       </c>
       <c r="C396" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="397">
@@ -6722,7 +6722,7 @@
         <v>0.99</v>
       </c>
       <c r="C397" t="n">
-        <v>0.6</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="398">
@@ -12988,7 +12988,7 @@
         <v>0.86</v>
       </c>
       <c r="C879" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="880">
@@ -13001,7 +13001,7 @@
         <v>0.87</v>
       </c>
       <c r="C880" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="881">
@@ -13014,7 +13014,7 @@
         <v>0.88</v>
       </c>
       <c r="C881" t="n">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="882">
@@ -13027,7 +13027,7 @@
         <v>0.89</v>
       </c>
       <c r="C882" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="883">
@@ -13040,7 +13040,7 @@
         <v>0.9</v>
       </c>
       <c r="C883" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="884">
@@ -13053,7 +13053,7 @@
         <v>0.91</v>
       </c>
       <c r="C884" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
     </row>
     <row r="885">

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Exchange_Series_0_resultados_full.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/Resultados_Exchange_Rate/Exchange_Series_0_resultados_full.xlsx
@@ -523,7 +523,7 @@
         <v>0.01070962822707405</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0722014415930835</v>
+        <v>0.07118775836150459</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +558,7 @@
         <v>0.001446203492165878</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06786938433359105</v>
+        <v>0.06692210205939317</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>0.009201257429750474</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0748836521041642</v>
+        <v>0.07439197652545276</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>0.004011294608530868</v>
       </c>
       <c r="K5" t="n">
-        <v>0.074731467325148</v>
+        <v>0.07439191847423055</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>0.008808667061710898</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0800650755143382</v>
+        <v>0.08018005795982361</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>0.00557772969979857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08109084356992</v>
+        <v>0.08135771345488052</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +733,7 @@
         <v>0.002721354871373314</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07214960576806473</v>
+        <v>0.07190332231717741</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
         <v>0.001636822602943777</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07078052550747402</v>
+        <v>0.07035737604902813</v>
       </c>
     </row>
     <row r="10">
@@ -803,7 +803,7 @@
         <v>0.003819661490132098</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07372589815638664</v>
+        <v>0.07324103798620105</v>
       </c>
     </row>
     <row r="11">
@@ -838,7 +838,7 @@
         <v>0.001794846151320982</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06883338525936278</v>
+        <v>0.06800702441995099</v>
       </c>
     </row>
     <row r="12">
@@ -873,7 +873,7 @@
         <v>0.00471765014806462</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07326954434900004</v>
+        <v>0.07246236215287216</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +908,7 @@
         <v>0.001568890274702881</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06899984177184104</v>
+        <v>0.06794561638723584</v>
       </c>
     </row>
     <row r="14">
@@ -943,7 +943,7 @@
         <v>0.002199317344416161</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07009315393281269</v>
+        <v>0.06900900760565828</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>0.00205355733878609</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06571351079917284</v>
+        <v>0.06442077368084545</v>
       </c>
     </row>
     <row r="16">
@@ -1013,7 +1013,7 @@
         <v>0.007887387672869265</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07369924827908847</v>
+        <v>0.07266027769506297</v>
       </c>
     </row>
     <row r="17">
@@ -1048,7 +1048,7 @@
         <v>0.00173283871823243</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06800527021082133</v>
+        <v>0.06680154691519816</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1083,7 @@
         <v>0.001671495845210622</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06740559755675388</v>
+        <v>0.06620948807535915</v>
       </c>
     </row>
     <row r="19">
@@ -1118,7 +1118,7 @@
         <v>0.004924491977094781</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05947847452604793</v>
+        <v>0.05780117214841991</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1153,7 @@
         <v>0.00250161711685581</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05630243195541474</v>
+        <v>0.05435670490737855</v>
       </c>
     </row>
     <row r="21">
@@ -1188,7 +1188,7 @@
         <v>0.004573013817331323</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0615408860943991</v>
+        <v>0.05983667795457889</v>
       </c>
     </row>
     <row r="22">
@@ -1223,7 +1223,7 @@
         <v>0.002296492137619096</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05659876918128037</v>
+        <v>0.05455949831350684</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1258,7 @@
         <v>0.001640437892880523</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05606817906878569</v>
+        <v>0.0539966812893999</v>
       </c>
     </row>
     <row r="24">
@@ -1293,7 +1293,7 @@
         <v>0.004013587538014103</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05915013560756412</v>
+        <v>0.05728359310350959</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>0.001754199765896327</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05799479558828258</v>
+        <v>0.05613980402666708</v>
       </c>
     </row>
     <row r="26">
@@ -1363,7 +1363,7 @@
         <v>0.003688390565347802</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06049277682518044</v>
+        <v>0.05891047574783769</v>
       </c>
     </row>
     <row r="27">
@@ -1398,7 +1398,7 @@
         <v>0.005536842008665997</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06405975728211558</v>
+        <v>0.06284143008927796</v>
       </c>
     </row>
     <row r="28">
@@ -1433,7 +1433,7 @@
         <v>0.001663020847562847</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05966279397235718</v>
+        <v>0.05829755181705677</v>
       </c>
     </row>
     <row r="29">
@@ -1468,7 +1468,7 @@
         <v>0.002412840153820187</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06038308729220474</v>
+        <v>0.05916088575182423</v>
       </c>
     </row>
     <row r="30">
@@ -1503,7 +1503,7 @@
         <v>0.002546594531832713</v>
       </c>
       <c r="K30" t="n">
-        <v>0.06040274614145286</v>
+        <v>0.05922635464871571</v>
       </c>
     </row>
     <row r="31">
@@ -1538,7 +1538,7 @@
         <v>0.002981083023973403</v>
       </c>
       <c r="K31" t="n">
-        <v>0.06168278182200356</v>
+        <v>0.06062860293907842</v>
       </c>
     </row>
   </sheetData>
@@ -12988,7 +12988,7 @@
         <v>0.86</v>
       </c>
       <c r="C879" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880">
@@ -13001,7 +13001,7 @@
         <v>0.87</v>
       </c>
       <c r="C880" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881">
@@ -13014,7 +13014,7 @@
         <v>0.88</v>
       </c>
       <c r="C881" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="882">
@@ -13027,7 +13027,7 @@
         <v>0.89</v>
       </c>
       <c r="C882" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="883">
@@ -13040,7 +13040,7 @@
         <v>0.9</v>
       </c>
       <c r="C883" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="884">
@@ -13053,7 +13053,7 @@
         <v>0.91</v>
       </c>
       <c r="C884" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="885">
@@ -13066,7 +13066,7 @@
         <v>0.92</v>
       </c>
       <c r="C885" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="886">
@@ -13079,7 +13079,7 @@
         <v>0.93</v>
       </c>
       <c r="C886" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="887">
